--- a/results/sd-of-residuals-w-and-wo-outliers.xlsx
+++ b/results/sd-of-residuals-w-and-wo-outliers.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruanvanmazijk/Desktop/Cape-vs-SWA/draft-02/manuscript_ver3-4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruanvanmazijk/Desktop/Cape-vs-SWA/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1AABB9-7479-F040-997B-7A3C046858CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69011AE3-F4E9-4548-BCC7-B2C2F7D86A21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="460" windowWidth="28100" windowHeight="16540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -661,12 +661,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -676,6 +670,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1034,7 +1034,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection sqref="A1:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1048,6 +1048,7 @@
     <col min="7" max="7" width="9.5703125" customWidth="1"/>
     <col min="8" max="8" width="1.5703125" customWidth="1"/>
     <col min="9" max="9" width="9.5703125" customWidth="1"/>
+    <col min="10" max="10" width="3.140625" customWidth="1"/>
     <col min="11" max="11" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1058,28 +1059,28 @@
       <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:11">
       <c r="C3" s="5" t="s">
@@ -1113,11 +1114,11 @@
         <v>638.37698587611305</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="8">
+      <c r="G5" s="6">
         <v>665.01669227496905</v>
       </c>
       <c r="H5" s="3"/>
-      <c r="I5" s="8">
+      <c r="I5" s="6">
         <v>383.79310102008498</v>
       </c>
     </row>
@@ -1133,11 +1134,11 @@
         <v>353.93076929915799</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="8">
+      <c r="G6" s="6">
         <v>554.67920763353004</v>
       </c>
       <c r="H6" s="3"/>
-      <c r="I6" s="8">
+      <c r="I6" s="6">
         <v>336.42885340761302</v>
       </c>
     </row>
@@ -1146,14 +1147,14 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="10" t="s">
+      <c r="H7" s="9"/>
+      <c r="I7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1253,7 +1254,7 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="I14" s="12"/>
+      <c r="I14" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
